--- a/medicine/Sexualité et sexologie/The_Voyeurs/The_Voyeurs.xlsx
+++ b/medicine/Sexualité et sexologie/The_Voyeurs/The_Voyeurs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">The Voyeurs est un thriller érotique américain réalisé par Michael Mohan, sorti en 2021 sur le service Prime Video.
 </t>
@@ -511,12 +523,49 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Pippa et Thomas, un jeune couple, emménagent ensemble dans le même appartement. Un soir, ils observent leurs voisins, un couple également, en train de faire l'amour. Ils commencent alors à développer une obsession pour leurs voisins et leur vie sexuelle, notamment pour celle du mari, qui enchaîne les infidélités.
 Un jour, la voisine prend rendez-vous dans le centre ophtalmologique où Pippa travaille. Les deux femmes commencent à sympathiser, ce qui renforce rapidement l'obsession de Pippa pour ses voisins ...
-Résumé détaillé
-Un jeune couple, Pippa et Thomas, emménagent ensemble dans leur premier appartement à Montréal. Ils se rendent vite compte que leurs fenêtres donnent directement sur l'appartement d'en face, où un homme travaillant dans un studio professionnel prend des photos d'une femme. Regardant le couple faire l'amour, ils s'amusent en leur donnant les pseudonymes de Margot et Brent.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>The_Voyeurs</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/The_Voyeurs</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Synopsis</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Résumé détaillé</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un jeune couple, Pippa et Thomas, emménagent ensemble dans leur premier appartement à Montréal. Ils se rendent vite compte que leurs fenêtres donnent directement sur l'appartement d'en face, où un homme travaillant dans un studio professionnel prend des photos d'une femme. Regardant le couple faire l'amour, ils s'amusent en leur donnant les pseudonymes de Margot et Brent.
 Pippa, qui travaille comme stagiaire en optométrie à L'Optique, reçoit une mangeoire à oiseaux de son patron comme cadeau de pendaison de crémaillère. Pippa achète une paire de jumelles pour qu'elle et Thomas puissent continuer d'observer le couple. Ils voient souvent « Brent » coucher avec plusieurs mannequins alors que « Margot » est absente.
 Pippa exprime son intérêt à savoir ce que disent les voisins. Thomas lui dit qu'il existe un moyen d'écouter une autre pièce grâce à l'aide d'un pointeur laser ; le processus nécessitant une surface réfléchissante pour leur renvoyer le faisceau laser. Lorsque "Brent" et "Margot" organisent une fête costumée d'Halloween dans leur appartement, Pippa et Thomas se faufilent en se faisant passer pour des invités. Pippa plante un miroir dans l'appartement, lui permettant plus tard, ainsi qu'à Thomas, d'écouter leurs conversations. Ils sont troublés d'entendre « Margot » confronter « Brent » à propos de son adultère. Celui-ci attaque "Margot" et la réprimande pour ses soupçons.
 Le lendemain, "Margot", de son vrai nom Julia, se rend à L'Optique où elle passe un examen de la vue par Pippa et commande une nouvelle paire de lunettes recommandée par celle-ci. Peu après, Julia invite Pippa à passer un moment avec elle. Pippa veut avertir Julia de l'adultère de « Brent », mais Thomas insiste pour qu'elle cesse d'espionner les voisins. Plus tard, Pippa et Julia se retrouvent dans un spa. Julia révèle que son mari s'appelle Sebastian, ou Seb, et qu'il est un photographe bien connu.
@@ -529,31 +578,33 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>The_Voyeurs</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Sexualité et sexologie/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/The_Voyeurs</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par la base de données IMDb.
 Titre original : The Voyeurs
@@ -581,31 +632,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>The_Voyeurs</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Sexualité et sexologie/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/The_Voyeurs</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Sydney Sweeney (VF : Marie Tirmont) : Pippa
 Justice Smith (VF : Baptiste Marc) : Thomas
@@ -618,39 +671,114 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>The_Voyeurs</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Sexualité et sexologie/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/The_Voyeurs</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Production</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Développement et distribution des rôles
-En septembre 2019, il est dévoilé que Michael Mohan réalisera The Voyeurs, un film basé sur son propre scénario avec Greg Gilreath et Adam Hendricks à la production via leurs société Divide/Conquer. Il est également annoncé que Amazon Studios distribuera le film sur son service Prime Video[1].
-En novembre 2019, il est annoncé que Sydney Sweeney, Justice Smith, Ben Hardy et Natasha Liu Bordizzo seront les acteurs principaux du film[2].
-Tournage
-Le tournage s'est déroulé à Montréal, dans la province du Québec au Canada. Il a commencé le 28 octobre et s'est terminé le 6 décembre 2019[3].
-Musique
-En août 2021, il est annoncé que Will Bates composera la musique du film[4].
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Développement et distribution des rôles</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En septembre 2019, il est dévoilé que Michael Mohan réalisera The Voyeurs, un film basé sur son propre scénario avec Greg Gilreath et Adam Hendricks à la production via leurs société Divide/Conquer. Il est également annoncé que Amazon Studios distribuera le film sur son service Prime Video.
+En novembre 2019, il est annoncé que Sydney Sweeney, Justice Smith, Ben Hardy et Natasha Liu Bordizzo seront les acteurs principaux du film.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>The_Voyeurs</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/The_Voyeurs</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Tournage</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le tournage s'est déroulé à Montréal, dans la province du Québec au Canada. Il a commencé le 28 octobre et s'est terminé le 6 décembre 2019.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>The_Voyeurs</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/The_Voyeurs</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Musique</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En août 2021, il est annoncé que Will Bates composera la musique du film.
 </t>
         </is>
       </c>
